--- a/pr-11.xlsx
+++ b/pr-11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21435" windowHeight="12270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Семенов</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>Стас</t>
-  </si>
-  <si>
-    <t>-&gt;сегодня</t>
   </si>
   <si>
     <t>№ п/п</t>
@@ -199,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,8 +209,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -356,26 +359,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -386,16 +374,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -407,7 +385,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -716,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,31 +720,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="1">
-        <f ca="1">TODAY()</f>
-        <v>43592</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -770,8 +754,8 @@
         <v>35850</v>
       </c>
       <c r="D3" s="6">
-        <f ca="1">(E1-C3)/365</f>
-        <v>21.210958904109589</v>
+        <f ca="1">(TODAY()-C3)/365</f>
+        <v>21.213698630136985</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -785,8 +769,8 @@
         <v>35694</v>
       </c>
       <c r="D4" s="6">
-        <f ca="1">(E1-C4)/365</f>
-        <v>21.638356164383563</v>
+        <f t="shared" ref="D4:D21" ca="1" si="0">(TODAY()-C4)/365</f>
+        <v>21.641095890410959</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -800,8 +784,8 @@
         <v>36030</v>
       </c>
       <c r="D5" s="6">
-        <f ca="1">(E1-C5)/365</f>
-        <v>20.717808219178082</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20.720547945205478</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -815,8 +799,8 @@
         <v>35259</v>
       </c>
       <c r="D6" s="6">
-        <f ca="1">(E1-C6)/365</f>
-        <v>22.830136986301369</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22.832876712328765</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -830,8 +814,8 @@
         <v>34228</v>
       </c>
       <c r="D7" s="6">
-        <f ca="1">(E1-C7)/365</f>
-        <v>25.654794520547945</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>25.657534246575342</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -845,8 +829,8 @@
         <v>35908</v>
       </c>
       <c r="D8" s="6">
-        <f ca="1">(E1-C8)/365</f>
-        <v>21.052054794520547</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>21.054794520547944</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -860,8 +844,8 @@
         <v>35140</v>
       </c>
       <c r="D9" s="6">
-        <f ca="1">(E1-C9)/365</f>
-        <v>23.156164383561645</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>23.158904109589042</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -875,8 +859,8 @@
         <v>35228</v>
       </c>
       <c r="D10" s="6">
-        <f ca="1">(E1-C10)/365</f>
-        <v>22.915068493150685</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22.917808219178081</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -890,8 +874,8 @@
         <v>33284</v>
       </c>
       <c r="D11" s="6">
-        <f ca="1">(E1-C11)/365</f>
-        <v>28.241095890410961</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>28.243835616438357</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -906,8 +890,8 @@
         <v>34823</v>
       </c>
       <c r="D12" s="6">
-        <f ca="1">(E1-C12)/365</f>
-        <v>24.024657534246575</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24.027397260273972</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -921,8 +905,8 @@
         <v>36141</v>
       </c>
       <c r="D13" s="6">
-        <f ca="1">(E1-C13)/365</f>
-        <v>20.413698630136988</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20.416438356164385</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -936,8 +920,8 @@
         <v>35480</v>
       </c>
       <c r="D14" s="6">
-        <f ca="1">(E1-C14)/365</f>
-        <v>22.224657534246575</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22.227397260273971</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -951,8 +935,8 @@
         <v>35777</v>
       </c>
       <c r="D15" s="6">
-        <f ca="1">(E1-C15)/365</f>
-        <v>21.410958904109588</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>21.413698630136988</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -966,8 +950,8 @@
         <v>35388</v>
       </c>
       <c r="D16" s="6">
-        <f ca="1">(E1-C16)/365</f>
-        <v>22.476712328767125</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22.479452054794521</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -981,8 +965,8 @@
         <v>35384</v>
       </c>
       <c r="D17" s="6">
-        <f ca="1">(E1-C17)/365</f>
-        <v>22.487671232876714</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22.490410958904111</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -996,8 +980,8 @@
         <v>34986</v>
       </c>
       <c r="D18" s="6">
-        <f ca="1">(E1-C18)/365</f>
-        <v>23.578082191780823</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>23.580821917808219</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1011,8 +995,8 @@
         <v>34132</v>
       </c>
       <c r="D19" s="6">
-        <f ca="1">(E1-C19)/365</f>
-        <v>25.917808219178081</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>25.920547945205481</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1026,8 +1010,8 @@
         <v>35353</v>
       </c>
       <c r="D20" s="6">
-        <f ca="1">(E1-C20)/365</f>
-        <v>22.572602739726026</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22.575342465753426</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1040,218 +1024,218 @@
       <c r="C21" s="9">
         <v>35778</v>
       </c>
-      <c r="D21" s="10">
-        <f ca="1">(E1-C21)/365</f>
-        <v>21.408219178082192</v>
+      <c r="D21" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.410958904109588</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="C23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="D23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
+      <c r="A24" s="14">
         <v>1</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="19">
+      <c r="B24" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="15">
         <v>168</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="16">
         <f>C24/2.54</f>
         <v>66.141732283464563</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="16">
         <f>C24/71.12</f>
         <v>2.3622047244094486</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="16">
         <f>C24/4.45</f>
         <v>37.752808988764045</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="16">
         <f>C24/30.48</f>
         <v>5.5118110236220472</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
+      <c r="A25" s="14">
         <v>2</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="19">
+      <c r="B25" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="15">
         <v>183</v>
       </c>
-      <c r="D25" s="20">
-        <f t="shared" ref="D25:D27" si="0">C25/2.54</f>
+      <c r="D25" s="16">
+        <f t="shared" ref="D25:D27" si="1">C25/2.54</f>
         <v>72.047244094488192</v>
       </c>
-      <c r="E25" s="20">
-        <f t="shared" ref="E25:E27" si="1">C25/71.12</f>
+      <c r="E25" s="16">
+        <f t="shared" ref="E25:E27" si="2">C25/71.12</f>
         <v>2.5731158605174351</v>
       </c>
-      <c r="F25" s="20">
-        <f t="shared" ref="F25:F27" si="2">C25/4.45</f>
+      <c r="F25" s="16">
+        <f t="shared" ref="F25:F27" si="3">C25/4.45</f>
         <v>41.123595505617978</v>
       </c>
-      <c r="G25" s="20">
-        <f t="shared" ref="G25:G27" si="3">C25/30.48</f>
+      <c r="G25" s="16">
+        <f t="shared" ref="G25:G27" si="4">C25/30.48</f>
         <v>6.0039370078740157</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18">
+      <c r="A26" s="14">
         <v>3</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="15">
+        <v>159</v>
+      </c>
+      <c r="D26" s="16">
+        <f t="shared" si="1"/>
+        <v>62.598425196850393</v>
+      </c>
+      <c r="E26" s="16">
+        <f t="shared" si="2"/>
+        <v>2.2356580427446566</v>
+      </c>
+      <c r="F26" s="16">
+        <f t="shared" si="3"/>
+        <v>35.730337078651687</v>
+      </c>
+      <c r="G26" s="16">
+        <f t="shared" si="4"/>
+        <v>5.2165354330708658</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <v>4</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="19">
-        <v>159</v>
-      </c>
-      <c r="D26" s="20">
-        <f t="shared" si="0"/>
-        <v>62.598425196850393</v>
-      </c>
-      <c r="E26" s="20">
+      <c r="C27" s="15">
+        <v>175</v>
+      </c>
+      <c r="D27" s="16">
         <f t="shared" si="1"/>
-        <v>2.2356580427446566</v>
-      </c>
-      <c r="F26" s="20">
+        <v>68.897637795275585</v>
+      </c>
+      <c r="E27" s="16">
         <f t="shared" si="2"/>
-        <v>35.730337078651687</v>
-      </c>
-      <c r="G26" s="20">
+        <v>2.4606299212598421</v>
+      </c>
+      <c r="F27" s="16">
         <f t="shared" si="3"/>
-        <v>5.2165354330708658</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18">
-        <v>4</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="19">
-        <v>175</v>
-      </c>
-      <c r="D27" s="20">
-        <f t="shared" si="0"/>
-        <v>68.897637795275585</v>
-      </c>
-      <c r="E27" s="20">
-        <f t="shared" si="1"/>
-        <v>2.4606299212598421</v>
-      </c>
-      <c r="F27" s="20">
-        <f t="shared" si="2"/>
         <v>39.325842696629209</v>
       </c>
-      <c r="G27" s="20">
-        <f t="shared" si="3"/>
+      <c r="G27" s="16">
+        <f t="shared" si="4"/>
         <v>5.741469816272966</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19">
+      <c r="A28" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20">
         <f>AVERAGE(C24:C27)</f>
         <v>171.25</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="21">
         <f>AVERAGE(D24:D27)</f>
         <v>67.421259842519689</v>
       </c>
-      <c r="E28" s="20">
-        <f t="shared" ref="E28:G28" si="4">AVERAGE(E24:E27)</f>
+      <c r="E28" s="21">
+        <f t="shared" ref="E28:G28" si="5">AVERAGE(E24:E27)</f>
         <v>2.4079021372328455</v>
       </c>
-      <c r="F28" s="20">
-        <f t="shared" si="4"/>
+      <c r="F28" s="21">
+        <f t="shared" si="5"/>
         <v>38.483146067415731</v>
       </c>
-      <c r="G28" s="20">
-        <f t="shared" si="4"/>
+      <c r="G28" s="21">
+        <f t="shared" si="5"/>
         <v>5.6184383202099735</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19">
+      <c r="A29" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20">
         <f>MAX(C24:C27)</f>
         <v>183</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="21">
         <f>MAX(D24:D27)</f>
         <v>72.047244094488192</v>
       </c>
-      <c r="E29" s="20">
-        <f t="shared" ref="E29:G29" si="5">MAX(E24:E27)</f>
+      <c r="E29" s="21">
+        <f t="shared" ref="E29:G29" si="6">MAX(E24:E27)</f>
         <v>2.5731158605174351</v>
       </c>
-      <c r="F29" s="20">
-        <f t="shared" si="5"/>
+      <c r="F29" s="21">
+        <f t="shared" si="6"/>
         <v>41.123595505617978</v>
       </c>
-      <c r="G29" s="20">
-        <f t="shared" si="5"/>
+      <c r="G29" s="21">
+        <f t="shared" si="6"/>
         <v>6.0039370078740157</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19">
+      <c r="A30" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20">
         <f>MIN(C24:C27)</f>
         <v>159</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="21">
         <f>MIN(D24:D27)</f>
         <v>62.598425196850393</v>
       </c>
-      <c r="E30" s="20">
-        <f t="shared" ref="E30:G30" si="6">MIN(E24:E27)</f>
+      <c r="E30" s="21">
+        <f t="shared" ref="E30:G30" si="7">MIN(E24:E27)</f>
         <v>2.2356580427446566</v>
       </c>
-      <c r="F30" s="20">
-        <f t="shared" si="6"/>
+      <c r="F30" s="21">
+        <f t="shared" si="7"/>
         <v>35.730337078651687</v>
       </c>
-      <c r="G30" s="20">
-        <f t="shared" si="6"/>
+      <c r="G30" s="21">
+        <f t="shared" si="7"/>
         <v>5.2165354330708658</v>
       </c>
     </row>
